--- a/biology/Médecine/1638_en_santé_et_médecine/1638_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1638_en_santé_et_médecine/1638_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1638_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1638_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1638 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1638_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1638_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>France
-À Grenoble, un nouvel hôpital est ouvert à l'initiative du maréchal de Créqui. Il ne changera plus d'emplacement jusqu'au début du XXe siècle[1].
-De juin à décembre, l'épidémie de peste décime un tiers de la population d’Argentan, soit 2 000 personnes en 6 mois[2].
-1638-1639 : famine en Franche-Comté[3].
+À Grenoble, un nouvel hôpital est ouvert à l'initiative du maréchal de Créqui. Il ne changera plus d'emplacement jusqu'au début du XXe siècle.
+De juin à décembre, l'épidémie de peste décime un tiers de la population d’Argentan, soit 2 000 personnes en 6 mois.
+1638-1639 : famine en Franche-Comté.
 Italie
 27 mars : tremblement de terre en Calabre (it).
 8 juin : second tremblement de terre en Calabre (it) avec un épicentre à Crotone.
 Pérou
-Création d'une chaire de médecine à Lima par les Espagnols[4].</t>
+Création d'une chaire de médecine à Lima par les Espagnols.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1638_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1638_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,16 +563,18 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11 janvier : Niels Stensen, en français Nicolas Sténon (mort en 1686), anatomiste et géologue d'origine danoise[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>11 janvier : Niels Stensen, en français Nicolas Sténon (mort en 1686), anatomiste et géologue d'origine danoise.
 23 mars : Frederik Ruysch (mort en 1731), médecin et un anatomiste néerlandais.
 19 avril : Niccolò Manucci (mort en 1715), médecin et voyageur vénitien.
 11 mai : Guy-Crescent Fagon (mort en 1718), médecin et botaniste français, premier médecin de Louis XIV.
 8 juin : Pierre Magnol (mort en 1715), médecin et botaniste français.
 29 juin : Heinrich Meibom (mort en 1700), médecin allemand.
 Vers 1638
-Martin Lister (mort en 1712), médecin anglais[6].</t>
+Martin Lister (mort en 1712), médecin anglais.</t>
         </is>
       </c>
     </row>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1638_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1638_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>29 octobre : Adrian von Mynsicht (né en 1588), médecin et alchimiste allemand.
 7 décembre : Epifanio Ferdinando (né en 1569), médecin et philosophe italien.</t>
